--- a/fitting/MLHfit/mlhfitv1/130519_fitparameters.xlsx
+++ b/fitting/MLHfit/mlhfitv1/130519_fitparameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,10 +25,11 @@
     <sheet name="In133" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="In134" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="In135" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="Ag126_i" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="Ag129" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="Ag130" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="Ag131" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="In136" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="Ag126_i" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="Ag129" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="Ag130" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="Ag131" sheetId="22" state="visible" r:id="rId23"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="47">
   <si>
     <t>FIX value</t>
   </si>
@@ -17745,8 +17746,8 @@
   </sheetPr>
   <dimension ref="A1:AI69"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N41" activeCellId="0" sqref="N41"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -17993,7 +17994,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="6" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>50</v>
@@ -18036,7 +18037,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D11" s="6" t="n">
         <v>50</v>
@@ -18634,7 +18635,7 @@
       </c>
       <c r="F41" s="11" t="n">
         <f aca="false">C10/100</f>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G41" s="11" t="n">
         <f aca="false">D10/100</f>
@@ -18642,7 +18643,7 @@
       </c>
       <c r="H41" s="11" t="n">
         <f aca="false">C11/100</f>
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="I41" s="11" t="n">
         <f aca="false">D11/100</f>
@@ -18675,7 +18676,7 @@
         <v>0</v>
       </c>
       <c r="R41" s="12" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27160,8 +27161,8 @@
   </sheetPr>
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -28591,6 +28592,1443 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:T49"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.36734693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f aca="false">C7&amp;C6</f>
+        <v>136In</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="F5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f aca="false">G7&amp;G6</f>
+        <v>136Sn</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="J5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" s="4" t="str">
+        <f aca="false">K7&amp;K6</f>
+        <v>136Sb</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="N5" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O5" s="2" t="str">
+        <f aca="false">O7&amp;O6</f>
+        <v>136Te</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3" t="str">
+        <f aca="false">S7&amp;S6</f>
+        <v>136I</v>
+      </c>
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="N6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="5"/>
+      <c r="R6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>136</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <f aca="false">C7</f>
+        <v>136</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="J7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <f aca="false">G7</f>
+        <v>136</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="N7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <f aca="false">K7</f>
+        <v>136</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="R7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S7" s="5" t="n">
+        <f aca="false">O7</f>
+        <v>136</v>
+      </c>
+      <c r="T7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <f aca="false">C8+1</f>
+        <v>50</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="J8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <f aca="false">G8+1</f>
+        <v>51</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="N8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <f aca="false">K8+1</f>
+        <v>52</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="R8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S8" s="5" t="n">
+        <f aca="false">O8+1</f>
+        <v>53</v>
+      </c>
+      <c r="T8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.370417</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.00394659</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.923</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>17.63</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>19.329</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>1.34699</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" s="6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P10" s="6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="6" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="6" t="n">
+        <v>-50</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2" t="str">
+        <f aca="false">G17&amp;G16</f>
+        <v>135Sn</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="J15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K15" s="2" t="str">
+        <f aca="false">K17&amp;K16</f>
+        <v>135Sb</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="N15" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="O15" s="2" t="str">
+        <f aca="false">O17&amp;O16</f>
+        <v>135Te</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3" t="str">
+        <f aca="false">S17&amp;S16</f>
+        <v>135I</v>
+      </c>
+      <c r="T15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="5" t="str">
+        <f aca="false">G6</f>
+        <v>Sn</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="J16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" s="5" t="str">
+        <f aca="false">K6</f>
+        <v>Sb</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="N16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O16" s="5" t="str">
+        <f aca="false">O6</f>
+        <v>Te</v>
+      </c>
+      <c r="P16" s="5"/>
+      <c r="R16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S16" s="5" t="str">
+        <f aca="false">S6</f>
+        <v>I</v>
+      </c>
+      <c r="T16" s="5"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <f aca="false">G7-1</f>
+        <v>135</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="J17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <f aca="false">G17</f>
+        <v>135</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="N17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="5" t="n">
+        <f aca="false">K17</f>
+        <v>135</v>
+      </c>
+      <c r="P17" s="5"/>
+      <c r="R17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S17" s="5" t="n">
+        <f aca="false">O17</f>
+        <v>135</v>
+      </c>
+      <c r="T17" s="5"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <f aca="false">G8</f>
+        <v>50</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="J18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <f aca="false">G18+1</f>
+        <v>51</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="N18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18" s="5" t="n">
+        <f aca="false">K18+1</f>
+        <v>52</v>
+      </c>
+      <c r="P18" s="5"/>
+      <c r="R18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S18" s="5" t="n">
+        <f aca="false">S8</f>
+        <v>53</v>
+      </c>
+      <c r="T18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.51595</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.0287531</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="6" t="n">
+        <v>1.679</v>
+      </c>
+      <c r="L19" s="6" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O19" s="28" t="n">
+        <v>19</v>
+      </c>
+      <c r="P19" s="6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>20.5298</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>0.126338</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="L20" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F25" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G25" s="2" t="str">
+        <f aca="false">G27&amp;G26</f>
+        <v>134Sn</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="J25" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K25" s="2" t="str">
+        <f aca="false">K27&amp;K26</f>
+        <v>134Sb</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3" t="str">
+        <f aca="false">O27&amp;O26</f>
+        <v>134Te</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="5" t="str">
+        <f aca="false">G16</f>
+        <v>Sn</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="J26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K26" s="5" t="str">
+        <f aca="false">K16</f>
+        <v>Sb</v>
+      </c>
+      <c r="L26" s="5"/>
+      <c r="N26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O26" s="5" t="str">
+        <f aca="false">O16</f>
+        <v>Te</v>
+      </c>
+      <c r="P26" s="5"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <f aca="false">G17-1</f>
+        <v>134</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="J27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="5" t="n">
+        <f aca="false">G27</f>
+        <v>134</v>
+      </c>
+      <c r="L27" s="5"/>
+      <c r="N27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27" s="5" t="n">
+        <f aca="false">K27</f>
+        <v>134</v>
+      </c>
+      <c r="P27" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <f aca="false">G18</f>
+        <v>50</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="J28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="5" t="n">
+        <f aca="false">G28+1</f>
+        <v>51</v>
+      </c>
+      <c r="L28" s="5"/>
+      <c r="N28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O28" s="5" t="n">
+        <f aca="false">K28+1</f>
+        <v>52</v>
+      </c>
+      <c r="P28" s="5"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="6" t="n">
+        <v>1.00631</v>
+      </c>
+      <c r="H29" s="6" t="n">
+        <v>0.0348002</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="6" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="L29" s="6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="6" t="n">
+        <v>99999999</v>
+      </c>
+      <c r="P29" s="6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="6" t="n">
+        <v>24.2142</v>
+      </c>
+      <c r="H30" s="6" t="n">
+        <v>0.111407</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="7" t="n">
+        <v>420</v>
+      </c>
+      <c r="C35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="7" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="C36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="7" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C37" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="K40" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L40" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="N40" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="O40" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="P40" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q40" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="R40" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="10" t="str">
+        <f aca="false">C5</f>
+        <v>136In</v>
+      </c>
+      <c r="C41" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="11" t="n">
+        <f aca="false">C9</f>
+        <v>0.101</v>
+      </c>
+      <c r="E41" s="11" t="n">
+        <f aca="false">D9</f>
+        <v>0.005</v>
+      </c>
+      <c r="F41" s="11" t="n">
+        <f aca="false">C10/100</f>
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="11" t="n">
+        <f aca="false">D10/100</f>
+        <v>0.5</v>
+      </c>
+      <c r="H41" s="11" t="n">
+        <f aca="false">C11/100</f>
+        <v>0.5</v>
+      </c>
+      <c r="I41" s="11" t="n">
+        <f aca="false">D11/100</f>
+        <v>0.5</v>
+      </c>
+      <c r="J41" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" s="12" t="n">
+        <f aca="false">D41/10</f>
+        <v>0.0101</v>
+      </c>
+      <c r="L41" s="12" t="n">
+        <f aca="false">D41*10</f>
+        <v>1.01</v>
+      </c>
+      <c r="M41" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="10" t="str">
+        <f aca="false">G5</f>
+        <v>136Sn</v>
+      </c>
+      <c r="C42" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" s="11" t="n">
+        <f aca="false">G9</f>
+        <v>0.370417</v>
+      </c>
+      <c r="E42" s="11" t="n">
+        <f aca="false">H9</f>
+        <v>0.00394659</v>
+      </c>
+      <c r="F42" s="11" t="n">
+        <f aca="false">G10/100</f>
+        <v>0.19329</v>
+      </c>
+      <c r="G42" s="11" t="n">
+        <f aca="false">H10/100</f>
+        <v>0.0134699</v>
+      </c>
+      <c r="H42" s="11" t="n">
+        <f aca="false">G11/100</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="11" t="n">
+        <f aca="false">H11/100</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" s="12" t="n">
+        <f aca="false">D42/10</f>
+        <v>0.0370417</v>
+      </c>
+      <c r="L42" s="12" t="n">
+        <f aca="false">D42*10</f>
+        <v>3.70417</v>
+      </c>
+      <c r="M42" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="10" t="str">
+        <f aca="false">G15</f>
+        <v>135Sn</v>
+      </c>
+      <c r="C43" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D43" s="11" t="n">
+        <f aca="false">G19</f>
+        <v>0.51595</v>
+      </c>
+      <c r="E43" s="11" t="n">
+        <f aca="false">H19</f>
+        <v>0.0287531</v>
+      </c>
+      <c r="F43" s="11" t="n">
+        <f aca="false">G20/100</f>
+        <v>0.205298</v>
+      </c>
+      <c r="G43" s="11" t="n">
+        <f aca="false">H20/100</f>
+        <v>0.00126338</v>
+      </c>
+      <c r="H43" s="11" t="n">
+        <f aca="false">G21/100</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="11" t="n">
+        <f aca="false">H21/100</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" s="12" t="n">
+        <f aca="false">D43/10</f>
+        <v>0.051595</v>
+      </c>
+      <c r="L43" s="12" t="n">
+        <f aca="false">D43*10</f>
+        <v>5.1595</v>
+      </c>
+      <c r="M43" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="10" t="str">
+        <f aca="false">K5</f>
+        <v>136Sb</v>
+      </c>
+      <c r="C44" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D44" s="11" t="n">
+        <f aca="false">K9</f>
+        <v>0.923</v>
+      </c>
+      <c r="E44" s="11" t="n">
+        <f aca="false">L9</f>
+        <v>0.014</v>
+      </c>
+      <c r="F44" s="11" t="n">
+        <f aca="false">K10/100</f>
+        <v>0.163</v>
+      </c>
+      <c r="G44" s="11" t="n">
+        <f aca="false">L10/100</f>
+        <v>0.032</v>
+      </c>
+      <c r="H44" s="11" t="n">
+        <f aca="false">K11/100</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="11" t="n">
+        <f aca="false">L11/100</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" s="12" t="n">
+        <f aca="false">D44/10</f>
+        <v>0.0923</v>
+      </c>
+      <c r="L44" s="12" t="n">
+        <f aca="false">D44*10</f>
+        <v>9.23</v>
+      </c>
+      <c r="M44" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="10" t="str">
+        <f aca="false">K15</f>
+        <v>135Sb</v>
+      </c>
+      <c r="C45" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" s="11" t="n">
+        <f aca="false">K19</f>
+        <v>1.679</v>
+      </c>
+      <c r="E45" s="11" t="n">
+        <f aca="false">L19</f>
+        <v>0.015</v>
+      </c>
+      <c r="F45" s="11" t="n">
+        <f aca="false">K20/100</f>
+        <v>0.22</v>
+      </c>
+      <c r="G45" s="11" t="n">
+        <f aca="false">L20/100</f>
+        <v>0.03</v>
+      </c>
+      <c r="H45" s="11" t="n">
+        <f aca="false">K21/100</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="11" t="n">
+        <f aca="false">L21/100</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" s="12" t="n">
+        <f aca="false">D45/10</f>
+        <v>0.1679</v>
+      </c>
+      <c r="L45" s="12" t="n">
+        <f aca="false">D45*10</f>
+        <v>16.79</v>
+      </c>
+      <c r="M45" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="10" t="str">
+        <f aca="false">G25</f>
+        <v>134Sn</v>
+      </c>
+      <c r="C46" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D46" s="11" t="n">
+        <f aca="false">G29</f>
+        <v>1.00631</v>
+      </c>
+      <c r="E46" s="11" t="n">
+        <f aca="false">H29</f>
+        <v>0.0348002</v>
+      </c>
+      <c r="F46" s="11" t="n">
+        <f aca="false">G30/100</f>
+        <v>0.242142</v>
+      </c>
+      <c r="G46" s="11" t="n">
+        <f aca="false">H30/100</f>
+        <v>0.00111407</v>
+      </c>
+      <c r="H46" s="11" t="n">
+        <f aca="false">G31/100</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="11" t="n">
+        <f aca="false">H31/100</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" s="12" t="n">
+        <f aca="false">D46/10</f>
+        <v>0.100631</v>
+      </c>
+      <c r="L46" s="12" t="n">
+        <f aca="false">D46*10</f>
+        <v>10.0631</v>
+      </c>
+      <c r="M46" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="10" t="str">
+        <f aca="false">O5</f>
+        <v>136Te</v>
+      </c>
+      <c r="C47" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D47" s="11" t="n">
+        <f aca="false">O9</f>
+        <v>17.63</v>
+      </c>
+      <c r="E47" s="11" t="n">
+        <f aca="false">P9</f>
+        <v>0.08</v>
+      </c>
+      <c r="F47" s="11" t="n">
+        <f aca="false">O10/100</f>
+        <v>0.0131</v>
+      </c>
+      <c r="G47" s="11" t="n">
+        <f aca="false">P10/100</f>
+        <v>0.0005</v>
+      </c>
+      <c r="H47" s="11" t="n">
+        <f aca="false">O11/100</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="11" t="n">
+        <f aca="false">P11/100</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" s="12" t="n">
+        <f aca="false">D47/10</f>
+        <v>1.763</v>
+      </c>
+      <c r="L47" s="12" t="n">
+        <f aca="false">D47*10</f>
+        <v>176.3</v>
+      </c>
+      <c r="M47" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="10" t="str">
+        <f aca="false">O15</f>
+        <v>135Te</v>
+      </c>
+      <c r="C48" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D48" s="11" t="n">
+        <f aca="false">O19</f>
+        <v>19</v>
+      </c>
+      <c r="E48" s="11" t="n">
+        <f aca="false">P19</f>
+        <v>0.2</v>
+      </c>
+      <c r="F48" s="11" t="n">
+        <f aca="false">O20/100</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="11" t="n">
+        <f aca="false">P20/100</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="11" t="n">
+        <f aca="false">O21/100</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="11" t="n">
+        <f aca="false">P21/100</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" s="12" t="n">
+        <f aca="false">D48/10</f>
+        <v>1.9</v>
+      </c>
+      <c r="L48" s="12" t="n">
+        <f aca="false">D48*10</f>
+        <v>190</v>
+      </c>
+      <c r="M48" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="10" t="str">
+        <f aca="false">K25</f>
+        <v>134Sb</v>
+      </c>
+      <c r="C49" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D49" s="11" t="n">
+        <f aca="false">K29</f>
+        <v>0.78</v>
+      </c>
+      <c r="E49" s="11" t="n">
+        <f aca="false">L29</f>
+        <v>0.06</v>
+      </c>
+      <c r="F49" s="11" t="n">
+        <f aca="false">K30/100</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="11" t="n">
+        <f aca="false">L30/100</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="11" t="n">
+        <f aca="false">K31/100</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="11" t="n">
+        <f aca="false">L31/100</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" s="12" t="n">
+        <f aca="false">D49/10</f>
+        <v>0.078</v>
+      </c>
+      <c r="L49" s="12" t="n">
+        <f aca="false">D49*10</f>
+        <v>7.8</v>
+      </c>
+      <c r="M49" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -30120,1845 +31558,6 @@
       <c r="AD66" s="17" t="n">
         <f aca="false">AD62-1</f>
         <v>123</v>
-      </c>
-      <c r="AE66" s="17"/>
-      <c r="AF66" s="18"/>
-      <c r="AG66" s="18"/>
-      <c r="AH66" s="18"/>
-      <c r="AI66" s="19"/>
-    </row>
-    <row r="67" customFormat="false" ht="23.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="T67" s="16"/>
-      <c r="U67" s="22"/>
-      <c r="V67" s="22"/>
-      <c r="W67" s="22"/>
-      <c r="X67" s="22"/>
-      <c r="Y67" s="22"/>
-      <c r="Z67" s="22"/>
-      <c r="AA67" s="20"/>
-      <c r="AB67" s="21" t="str">
-        <f aca="false">AB63</f>
-        <v>In</v>
-      </c>
-      <c r="AC67" s="22"/>
-      <c r="AD67" s="20"/>
-      <c r="AE67" s="21" t="str">
-        <f aca="false">AE63</f>
-        <v>Sn</v>
-      </c>
-      <c r="AF67" s="22"/>
-      <c r="AG67" s="22"/>
-      <c r="AH67" s="22"/>
-      <c r="AI67" s="19"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T68" s="16"/>
-      <c r="U68" s="22"/>
-      <c r="V68" s="22"/>
-      <c r="W68" s="22"/>
-      <c r="X68" s="22"/>
-      <c r="Y68" s="22"/>
-      <c r="Z68" s="22"/>
-      <c r="AA68" s="22"/>
-      <c r="AB68" s="22"/>
-      <c r="AC68" s="22"/>
-      <c r="AD68" s="22"/>
-      <c r="AE68" s="22"/>
-      <c r="AF68" s="22"/>
-      <c r="AG68" s="22"/>
-      <c r="AH68" s="22"/>
-      <c r="AI68" s="19"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T69" s="23"/>
-      <c r="U69" s="24"/>
-      <c r="V69" s="24"/>
-      <c r="W69" s="24"/>
-      <c r="X69" s="24"/>
-      <c r="Y69" s="24"/>
-      <c r="Z69" s="24"/>
-      <c r="AA69" s="24"/>
-      <c r="AB69" s="24"/>
-      <c r="AC69" s="24"/>
-      <c r="AD69" s="24"/>
-      <c r="AE69" s="24"/>
-      <c r="AF69" s="24"/>
-      <c r="AG69" s="24"/>
-      <c r="AH69" s="24"/>
-      <c r="AI69" s="25"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AI69"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H45" activeCellId="0" sqref="H45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="20" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="4.45408163265306"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="4.59183673469388"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.05102040816327"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="5.26530612244898"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="4.59183673469388"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="4.86224489795918"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="35" style="0" width="8.36734693877551"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="str">
-        <f aca="false">C7&amp;C6</f>
-        <v>129Ag</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="F5" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2" t="str">
-        <f aca="false">G7&amp;G6</f>
-        <v>129Cd</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="J5" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" s="4" t="str">
-        <f aca="false">K7&amp;K6</f>
-        <v>129In</v>
-      </c>
-      <c r="L5" s="3"/>
-      <c r="N5" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="O5" s="2" t="str">
-        <f aca="false">O7&amp;O6</f>
-        <v>129Sn</v>
-      </c>
-      <c r="P5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3" t="str">
-        <f aca="false">S7&amp;S6</f>
-        <v>129Sb</v>
-      </c>
-      <c r="T5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="F6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="J6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="N6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P6" s="5"/>
-      <c r="R6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T6" s="5"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>129</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="F7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="5" t="n">
-        <f aca="false">C7</f>
-        <v>129</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="J7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <f aca="false">G7</f>
-        <v>129</v>
-      </c>
-      <c r="L7" s="5"/>
-      <c r="N7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O7" s="5" t="n">
-        <f aca="false">K7</f>
-        <v>129</v>
-      </c>
-      <c r="P7" s="5"/>
-      <c r="R7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="S7" s="5" t="n">
-        <f aca="false">O7</f>
-        <v>129</v>
-      </c>
-      <c r="T7" s="5"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>47</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="F8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="5" t="n">
-        <f aca="false">C8+1</f>
-        <v>48</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="J8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <f aca="false">G8+1</f>
-        <v>49</v>
-      </c>
-      <c r="L8" s="5"/>
-      <c r="N8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O8" s="5" t="n">
-        <f aca="false">K8+1</f>
-        <v>50</v>
-      </c>
-      <c r="P8" s="5"/>
-      <c r="R8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="S8" s="5" t="n">
-        <f aca="false">O8+1</f>
-        <v>51</v>
-      </c>
-      <c r="T8" s="5"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="6" t="n">
-        <v>0.046</v>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>0.009</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="6" t="n">
-        <v>0.154</v>
-      </c>
-      <c r="H9" s="6" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="6" t="n">
-        <v>0.611</v>
-      </c>
-      <c r="L9" s="6" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="6" t="n">
-        <v>133.8</v>
-      </c>
-      <c r="P9" s="6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D10" s="6" t="n">
-        <v>50</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="6" t="n">
-        <v>50</v>
-      </c>
-      <c r="H10" s="6" t="n">
-        <v>50</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="6" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="L10" s="6" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D11" s="6" t="n">
-        <v>50</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="6" t="n">
-        <v>0.046</v>
-      </c>
-      <c r="D13" s="6" t="n">
-        <v>0.009</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="6" t="n">
-        <v>-50</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G15" s="2" t="str">
-        <f aca="false">G17&amp;G16</f>
-        <v>128Cd</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="J15" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="K15" s="2" t="str">
-        <f aca="false">K17&amp;K16</f>
-        <v>128In</v>
-      </c>
-      <c r="L15" s="3"/>
-      <c r="N15" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="O15" s="2" t="str">
-        <f aca="false">O17&amp;O16</f>
-        <v>128Sn</v>
-      </c>
-      <c r="P15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3" t="str">
-        <f aca="false">S17&amp;S16</f>
-        <v>128Sb</v>
-      </c>
-      <c r="T15" s="3"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="5" t="str">
-        <f aca="false">G6</f>
-        <v>Cd</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="J16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K16" s="5" t="str">
-        <f aca="false">K6</f>
-        <v>In</v>
-      </c>
-      <c r="L16" s="5"/>
-      <c r="N16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O16" s="5" t="str">
-        <f aca="false">O6</f>
-        <v>Sn</v>
-      </c>
-      <c r="P16" s="5"/>
-      <c r="R16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="S16" s="5" t="str">
-        <f aca="false">S6</f>
-        <v>Sb</v>
-      </c>
-      <c r="T16" s="5"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="5" t="n">
-        <f aca="false">G7-1</f>
-        <v>128</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="J17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <f aca="false">G17</f>
-        <v>128</v>
-      </c>
-      <c r="L17" s="5"/>
-      <c r="N17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O17" s="5" t="n">
-        <f aca="false">K17</f>
-        <v>128</v>
-      </c>
-      <c r="P17" s="5"/>
-      <c r="R17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="S17" s="5" t="n">
-        <f aca="false">O17</f>
-        <v>128</v>
-      </c>
-      <c r="T17" s="5"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="5" t="n">
-        <f aca="false">G8</f>
-        <v>48</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="J18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <f aca="false">G18+1</f>
-        <v>49</v>
-      </c>
-      <c r="L18" s="5"/>
-      <c r="N18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O18" s="5" t="n">
-        <f aca="false">K18+1</f>
-        <v>50</v>
-      </c>
-      <c r="P18" s="5"/>
-      <c r="R18" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="S18" s="5" t="n">
-        <f aca="false">S8</f>
-        <v>51</v>
-      </c>
-      <c r="T18" s="5"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="6" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="H19" s="6" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="6" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="L19" s="6" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O19" s="6" t="n">
-        <v>3544.2</v>
-      </c>
-      <c r="P19" s="6" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="R19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="6" t="n">
-        <v>0.046</v>
-      </c>
-      <c r="L20" s="6" t="n">
-        <v>0.046</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F25" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="G25" s="2" t="str">
-        <f aca="false">G27&amp;G26</f>
-        <v>127Cd</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="J25" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="K25" s="2" t="str">
-        <f aca="false">K27&amp;K26</f>
-        <v>127In</v>
-      </c>
-      <c r="L25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3" t="str">
-        <f aca="false">O27&amp;O26</f>
-        <v>127Sn</v>
-      </c>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F26" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G26" s="5" t="str">
-        <f aca="false">G16</f>
-        <v>Cd</v>
-      </c>
-      <c r="H26" s="5"/>
-      <c r="J26" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K26" s="5" t="str">
-        <f aca="false">K16</f>
-        <v>In</v>
-      </c>
-      <c r="L26" s="5"/>
-      <c r="N26" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O26" s="5" t="str">
-        <f aca="false">O16</f>
-        <v>Sn</v>
-      </c>
-      <c r="P26" s="5"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F27" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="5" t="n">
-        <f aca="false">G17-1</f>
-        <v>127</v>
-      </c>
-      <c r="H27" s="5"/>
-      <c r="J27" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K27" s="5" t="n">
-        <f aca="false">G27</f>
-        <v>127</v>
-      </c>
-      <c r="L27" s="5"/>
-      <c r="N27" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O27" s="5" t="n">
-        <f aca="false">K27</f>
-        <v>127</v>
-      </c>
-      <c r="P27" s="5"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="5" t="n">
-        <f aca="false">G18</f>
-        <v>48</v>
-      </c>
-      <c r="H28" s="5"/>
-      <c r="J28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <f aca="false">G28+1</f>
-        <v>49</v>
-      </c>
-      <c r="L28" s="5"/>
-      <c r="N28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O28" s="5" t="n">
-        <f aca="false">K28+1</f>
-        <v>50</v>
-      </c>
-      <c r="P28" s="5"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="6" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="H29" s="6" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="6" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="L29" s="6" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F30" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="6" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="L30" s="6" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K31" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" s="7" t="n">
-        <f aca="false">1100-140</f>
-        <v>960</v>
-      </c>
-      <c r="C35" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="7" t="n">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="7" t="n">
-        <v>50</v>
-      </c>
-      <c r="C36" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" s="7" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C37" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J40" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="K40" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="L40" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="M40" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="N40" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="O40" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="P40" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q40" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="R40" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="10" t="str">
-        <f aca="false">C5</f>
-        <v>129Ag</v>
-      </c>
-      <c r="C41" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" s="11" t="n">
-        <f aca="false">C9</f>
-        <v>0.046</v>
-      </c>
-      <c r="E41" s="11" t="n">
-        <f aca="false">D9</f>
-        <v>0.009</v>
-      </c>
-      <c r="F41" s="11" t="n">
-        <f aca="false">C10/100</f>
-        <v>0.5</v>
-      </c>
-      <c r="G41" s="11" t="n">
-        <f aca="false">D10/100</f>
-        <v>0.5</v>
-      </c>
-      <c r="H41" s="11" t="n">
-        <f aca="false">C11/100</f>
-        <v>0.5</v>
-      </c>
-      <c r="I41" s="11" t="n">
-        <f aca="false">D11/100</f>
-        <v>0.5</v>
-      </c>
-      <c r="J41" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" s="12" t="n">
-        <f aca="false">D41/10</f>
-        <v>0.0046</v>
-      </c>
-      <c r="L41" s="12" t="n">
-        <f aca="false">D41*10</f>
-        <v>0.46</v>
-      </c>
-      <c r="M41" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P41" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="10" t="str">
-        <f aca="false">G5</f>
-        <v>129Cd</v>
-      </c>
-      <c r="C42" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D42" s="11" t="n">
-        <f aca="false">G9</f>
-        <v>0.154</v>
-      </c>
-      <c r="E42" s="11" t="n">
-        <f aca="false">H9</f>
-        <v>0.002</v>
-      </c>
-      <c r="F42" s="11" t="n">
-        <f aca="false">G10/100</f>
-        <v>0.5</v>
-      </c>
-      <c r="G42" s="11" t="n">
-        <f aca="false">H10/100</f>
-        <v>0.5</v>
-      </c>
-      <c r="H42" s="11" t="n">
-        <f aca="false">G11/100</f>
-        <v>0</v>
-      </c>
-      <c r="I42" s="11" t="n">
-        <f aca="false">H11/100</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K42" s="12" t="n">
-        <f aca="false">D42/10</f>
-        <v>0.0154</v>
-      </c>
-      <c r="L42" s="12" t="n">
-        <f aca="false">D42*10</f>
-        <v>1.54</v>
-      </c>
-      <c r="M42" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P42" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q42" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="10" t="str">
-        <f aca="false">G15</f>
-        <v>128Cd</v>
-      </c>
-      <c r="C43" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="D43" s="11" t="n">
-        <f aca="false">G19</f>
-        <v>0.28</v>
-      </c>
-      <c r="E43" s="11" t="n">
-        <f aca="false">H19</f>
-        <v>0.04</v>
-      </c>
-      <c r="F43" s="11" t="n">
-        <f aca="false">G20/100</f>
-        <v>0</v>
-      </c>
-      <c r="G43" s="11" t="n">
-        <f aca="false">H20/100</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="11" t="n">
-        <f aca="false">G21/100</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="11" t="n">
-        <f aca="false">H21/100</f>
-        <v>0</v>
-      </c>
-      <c r="J43" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" s="12" t="n">
-        <f aca="false">D43/10</f>
-        <v>0.028</v>
-      </c>
-      <c r="L43" s="12" t="n">
-        <f aca="false">D43*10</f>
-        <v>2.8</v>
-      </c>
-      <c r="M43" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P43" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="10" t="str">
-        <f aca="false">K5</f>
-        <v>129In</v>
-      </c>
-      <c r="C44" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D44" s="11" t="n">
-        <f aca="false">K9</f>
-        <v>0.611</v>
-      </c>
-      <c r="E44" s="11" t="n">
-        <f aca="false">L9</f>
-        <v>0.005</v>
-      </c>
-      <c r="F44" s="11" t="n">
-        <f aca="false">K10/100</f>
-        <v>0.0023</v>
-      </c>
-      <c r="G44" s="11" t="n">
-        <f aca="false">L10/100</f>
-        <v>0.0007</v>
-      </c>
-      <c r="H44" s="11" t="n">
-        <f aca="false">K11/100</f>
-        <v>0</v>
-      </c>
-      <c r="I44" s="11" t="n">
-        <f aca="false">L11/100</f>
-        <v>0</v>
-      </c>
-      <c r="J44" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K44" s="12" t="n">
-        <f aca="false">D44/10</f>
-        <v>0.0611</v>
-      </c>
-      <c r="L44" s="12" t="n">
-        <f aca="false">D44*10</f>
-        <v>6.11</v>
-      </c>
-      <c r="M44" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P44" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="10" t="str">
-        <f aca="false">K15</f>
-        <v>128In</v>
-      </c>
-      <c r="C45" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D45" s="11" t="n">
-        <f aca="false">K19</f>
-        <v>0.84</v>
-      </c>
-      <c r="E45" s="11" t="n">
-        <f aca="false">L19</f>
-        <v>0.06</v>
-      </c>
-      <c r="F45" s="11" t="n">
-        <f aca="false">K20/100</f>
-        <v>0.00046</v>
-      </c>
-      <c r="G45" s="11" t="n">
-        <f aca="false">L20/100</f>
-        <v>0.00046</v>
-      </c>
-      <c r="H45" s="11" t="n">
-        <f aca="false">K21/100</f>
-        <v>0</v>
-      </c>
-      <c r="I45" s="11" t="n">
-        <f aca="false">L21/100</f>
-        <v>0</v>
-      </c>
-      <c r="J45" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K45" s="12" t="n">
-        <f aca="false">D45/10</f>
-        <v>0.084</v>
-      </c>
-      <c r="L45" s="12" t="n">
-        <f aca="false">D45*10</f>
-        <v>8.4</v>
-      </c>
-      <c r="M45" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P45" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="10" t="str">
-        <f aca="false">G25</f>
-        <v>127Cd</v>
-      </c>
-      <c r="C46" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="D46" s="11" t="n">
-        <f aca="false">G29</f>
-        <v>0.37</v>
-      </c>
-      <c r="E46" s="11" t="n">
-        <f aca="false">H29</f>
-        <v>0.07</v>
-      </c>
-      <c r="F46" s="11" t="n">
-        <f aca="false">G30/100</f>
-        <v>0</v>
-      </c>
-      <c r="G46" s="11" t="n">
-        <f aca="false">H30/100</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="11" t="n">
-        <f aca="false">G31/100</f>
-        <v>0</v>
-      </c>
-      <c r="I46" s="11" t="n">
-        <f aca="false">H31/100</f>
-        <v>0</v>
-      </c>
-      <c r="J46" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K46" s="12" t="n">
-        <f aca="false">D46/10</f>
-        <v>0.037</v>
-      </c>
-      <c r="L46" s="12" t="n">
-        <f aca="false">D46*10</f>
-        <v>3.7</v>
-      </c>
-      <c r="M46" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P46" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="10" t="str">
-        <f aca="false">O5</f>
-        <v>129Sn</v>
-      </c>
-      <c r="C47" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="D47" s="11" t="n">
-        <f aca="false">O9</f>
-        <v>133.8</v>
-      </c>
-      <c r="E47" s="11" t="n">
-        <f aca="false">P9</f>
-        <v>2.4</v>
-      </c>
-      <c r="F47" s="11" t="n">
-        <f aca="false">O10/100</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="11" t="n">
-        <f aca="false">P10/100</f>
-        <v>0</v>
-      </c>
-      <c r="H47" s="11" t="n">
-        <f aca="false">O11/100</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="11" t="n">
-        <f aca="false">P11/100</f>
-        <v>0</v>
-      </c>
-      <c r="J47" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K47" s="12" t="n">
-        <f aca="false">D47/10</f>
-        <v>13.38</v>
-      </c>
-      <c r="L47" s="12" t="n">
-        <f aca="false">D47*10</f>
-        <v>1338</v>
-      </c>
-      <c r="M47" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P47" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="10" t="str">
-        <f aca="false">O15</f>
-        <v>128Sn</v>
-      </c>
-      <c r="C48" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="D48" s="11" t="n">
-        <f aca="false">O19</f>
-        <v>3544.2</v>
-      </c>
-      <c r="E48" s="11" t="n">
-        <f aca="false">P19</f>
-        <v>8.4</v>
-      </c>
-      <c r="F48" s="11" t="n">
-        <f aca="false">O20/100</f>
-        <v>0</v>
-      </c>
-      <c r="G48" s="11" t="n">
-        <f aca="false">P20/100</f>
-        <v>0</v>
-      </c>
-      <c r="H48" s="11" t="n">
-        <f aca="false">O21/100</f>
-        <v>0</v>
-      </c>
-      <c r="I48" s="11" t="n">
-        <f aca="false">P21/100</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K48" s="12" t="n">
-        <f aca="false">D48/10</f>
-        <v>354.42</v>
-      </c>
-      <c r="L48" s="12" t="n">
-        <f aca="false">D48*10</f>
-        <v>35442</v>
-      </c>
-      <c r="M48" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P48" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R48" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="10" t="str">
-        <f aca="false">K25</f>
-        <v>127In</v>
-      </c>
-      <c r="C49" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="D49" s="11" t="n">
-        <f aca="false">K29</f>
-        <v>1.09</v>
-      </c>
-      <c r="E49" s="11" t="n">
-        <f aca="false">L29</f>
-        <v>0.01</v>
-      </c>
-      <c r="F49" s="11" t="n">
-        <f aca="false">K30/100</f>
-        <v>0.0003</v>
-      </c>
-      <c r="G49" s="11" t="n">
-        <f aca="false">L30/100</f>
-        <v>0.0003</v>
-      </c>
-      <c r="H49" s="11" t="n">
-        <f aca="false">K31/100</f>
-        <v>0</v>
-      </c>
-      <c r="I49" s="11" t="n">
-        <f aca="false">L31/100</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K49" s="12" t="n">
-        <f aca="false">D49/10</f>
-        <v>0.109</v>
-      </c>
-      <c r="L49" s="12" t="n">
-        <f aca="false">D49*10</f>
-        <v>10.9</v>
-      </c>
-      <c r="M49" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P49" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R49" s="12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T53" s="13"/>
-      <c r="U53" s="14"/>
-      <c r="V53" s="14"/>
-      <c r="W53" s="14"/>
-      <c r="X53" s="14"/>
-      <c r="Y53" s="14"/>
-      <c r="Z53" s="14"/>
-      <c r="AA53" s="14"/>
-      <c r="AB53" s="14"/>
-      <c r="AC53" s="14"/>
-      <c r="AD53" s="14"/>
-      <c r="AE53" s="14"/>
-      <c r="AF53" s="14"/>
-      <c r="AG53" s="14"/>
-      <c r="AH53" s="14"/>
-      <c r="AI53" s="15"/>
-    </row>
-    <row r="54" customFormat="false" ht="16.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="T54" s="16"/>
-      <c r="U54" s="17" t="n">
-        <f aca="false">C7</f>
-        <v>129</v>
-      </c>
-      <c r="V54" s="17"/>
-      <c r="W54" s="18"/>
-      <c r="X54" s="17" t="n">
-        <f aca="false">G7</f>
-        <v>129</v>
-      </c>
-      <c r="Y54" s="17"/>
-      <c r="Z54" s="18"/>
-      <c r="AA54" s="17" t="n">
-        <f aca="false">K7</f>
-        <v>129</v>
-      </c>
-      <c r="AB54" s="17"/>
-      <c r="AC54" s="18"/>
-      <c r="AD54" s="17" t="n">
-        <f aca="false">O7</f>
-        <v>129</v>
-      </c>
-      <c r="AE54" s="17"/>
-      <c r="AF54" s="18"/>
-      <c r="AG54" s="17" t="n">
-        <f aca="false">S7</f>
-        <v>129</v>
-      </c>
-      <c r="AH54" s="17"/>
-      <c r="AI54" s="19"/>
-    </row>
-    <row r="55" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="T55" s="16"/>
-      <c r="U55" s="20"/>
-      <c r="V55" s="21" t="str">
-        <f aca="false">C6</f>
-        <v>Ag</v>
-      </c>
-      <c r="W55" s="22"/>
-      <c r="X55" s="20"/>
-      <c r="Y55" s="21" t="str">
-        <f aca="false">G6</f>
-        <v>Cd</v>
-      </c>
-      <c r="Z55" s="22"/>
-      <c r="AA55" s="20"/>
-      <c r="AB55" s="21" t="str">
-        <f aca="false">K6</f>
-        <v>In</v>
-      </c>
-      <c r="AC55" s="22"/>
-      <c r="AD55" s="20"/>
-      <c r="AE55" s="21" t="str">
-        <f aca="false">O6</f>
-        <v>Sn</v>
-      </c>
-      <c r="AF55" s="22"/>
-      <c r="AG55" s="20"/>
-      <c r="AH55" s="21" t="str">
-        <f aca="false">S6</f>
-        <v>Sb</v>
-      </c>
-      <c r="AI55" s="19"/>
-    </row>
-    <row r="56" customFormat="false" ht="23.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="T56" s="16"/>
-      <c r="U56" s="22"/>
-      <c r="V56" s="22"/>
-      <c r="W56" s="22"/>
-      <c r="X56" s="22"/>
-      <c r="Y56" s="22"/>
-      <c r="Z56" s="22"/>
-      <c r="AA56" s="22"/>
-      <c r="AB56" s="22"/>
-      <c r="AC56" s="22"/>
-      <c r="AD56" s="22"/>
-      <c r="AE56" s="22"/>
-      <c r="AF56" s="22"/>
-      <c r="AG56" s="22"/>
-      <c r="AH56" s="22"/>
-      <c r="AI56" s="19"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T57" s="16"/>
-      <c r="U57" s="22"/>
-      <c r="V57" s="22"/>
-      <c r="W57" s="22"/>
-      <c r="X57" s="22"/>
-      <c r="Y57" s="22"/>
-      <c r="Z57" s="22"/>
-      <c r="AA57" s="22"/>
-      <c r="AB57" s="22"/>
-      <c r="AC57" s="22"/>
-      <c r="AD57" s="22"/>
-      <c r="AE57" s="22"/>
-      <c r="AF57" s="22"/>
-      <c r="AG57" s="22"/>
-      <c r="AH57" s="22"/>
-      <c r="AI57" s="19"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T58" s="16"/>
-      <c r="U58" s="22"/>
-      <c r="V58" s="22"/>
-      <c r="W58" s="22"/>
-      <c r="X58" s="17" t="n">
-        <f aca="false">G17</f>
-        <v>128</v>
-      </c>
-      <c r="Y58" s="17"/>
-      <c r="Z58" s="18"/>
-      <c r="AA58" s="17" t="n">
-        <f aca="false">K17</f>
-        <v>128</v>
-      </c>
-      <c r="AB58" s="17"/>
-      <c r="AC58" s="18"/>
-      <c r="AD58" s="17" t="n">
-        <f aca="false">O17</f>
-        <v>128</v>
-      </c>
-      <c r="AE58" s="17"/>
-      <c r="AF58" s="18"/>
-      <c r="AG58" s="17" t="n">
-        <f aca="false">S17</f>
-        <v>128</v>
-      </c>
-      <c r="AH58" s="17"/>
-      <c r="AI58" s="19"/>
-    </row>
-    <row r="59" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T59" s="16"/>
-      <c r="U59" s="22"/>
-      <c r="V59" s="22"/>
-      <c r="W59" s="22"/>
-      <c r="X59" s="20"/>
-      <c r="Y59" s="21" t="str">
-        <f aca="false">G16</f>
-        <v>Cd</v>
-      </c>
-      <c r="Z59" s="22"/>
-      <c r="AA59" s="20"/>
-      <c r="AB59" s="21" t="str">
-        <f aca="false">K16</f>
-        <v>In</v>
-      </c>
-      <c r="AC59" s="22"/>
-      <c r="AD59" s="20"/>
-      <c r="AE59" s="21" t="str">
-        <f aca="false">O16</f>
-        <v>Sn</v>
-      </c>
-      <c r="AF59" s="22"/>
-      <c r="AG59" s="20"/>
-      <c r="AH59" s="21" t="str">
-        <f aca="false">S16</f>
-        <v>Sb</v>
-      </c>
-      <c r="AI59" s="19"/>
-    </row>
-    <row r="60" customFormat="false" ht="22.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="T60" s="16"/>
-      <c r="U60" s="22"/>
-      <c r="V60" s="22"/>
-      <c r="W60" s="22"/>
-      <c r="X60" s="22"/>
-      <c r="Y60" s="22"/>
-      <c r="Z60" s="22"/>
-      <c r="AA60" s="22"/>
-      <c r="AB60" s="22"/>
-      <c r="AC60" s="22"/>
-      <c r="AD60" s="22"/>
-      <c r="AE60" s="22"/>
-      <c r="AF60" s="22"/>
-      <c r="AG60" s="22"/>
-      <c r="AH60" s="22"/>
-      <c r="AI60" s="19"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T61" s="16"/>
-      <c r="U61" s="22"/>
-      <c r="V61" s="22"/>
-      <c r="W61" s="22"/>
-      <c r="X61" s="22"/>
-      <c r="Y61" s="22"/>
-      <c r="Z61" s="22"/>
-      <c r="AA61" s="22"/>
-      <c r="AB61" s="22"/>
-      <c r="AC61" s="22"/>
-      <c r="AD61" s="22"/>
-      <c r="AE61" s="22"/>
-      <c r="AF61" s="22"/>
-      <c r="AG61" s="22"/>
-      <c r="AH61" s="22"/>
-      <c r="AI61" s="19"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T62" s="16"/>
-      <c r="U62" s="22"/>
-      <c r="V62" s="22"/>
-      <c r="W62" s="22"/>
-      <c r="X62" s="17" t="n">
-        <f aca="false">G27</f>
-        <v>127</v>
-      </c>
-      <c r="Y62" s="17"/>
-      <c r="Z62" s="18"/>
-      <c r="AA62" s="17" t="n">
-        <f aca="false">K27</f>
-        <v>127</v>
-      </c>
-      <c r="AB62" s="17"/>
-      <c r="AC62" s="18"/>
-      <c r="AD62" s="17" t="n">
-        <f aca="false">O27</f>
-        <v>127</v>
-      </c>
-      <c r="AE62" s="17"/>
-      <c r="AF62" s="18"/>
-      <c r="AG62" s="18"/>
-      <c r="AH62" s="18"/>
-      <c r="AI62" s="19"/>
-    </row>
-    <row r="63" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T63" s="16"/>
-      <c r="U63" s="22"/>
-      <c r="V63" s="22"/>
-      <c r="W63" s="22"/>
-      <c r="X63" s="20"/>
-      <c r="Y63" s="21" t="str">
-        <f aca="false">G26</f>
-        <v>Cd</v>
-      </c>
-      <c r="Z63" s="22"/>
-      <c r="AA63" s="20"/>
-      <c r="AB63" s="21" t="str">
-        <f aca="false">K26</f>
-        <v>In</v>
-      </c>
-      <c r="AC63" s="22"/>
-      <c r="AD63" s="20"/>
-      <c r="AE63" s="21" t="str">
-        <f aca="false">O26</f>
-        <v>Sn</v>
-      </c>
-      <c r="AF63" s="22"/>
-      <c r="AG63" s="22"/>
-      <c r="AH63" s="22"/>
-      <c r="AI63" s="19"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T64" s="16"/>
-      <c r="U64" s="22"/>
-      <c r="V64" s="22"/>
-      <c r="W64" s="22"/>
-      <c r="X64" s="22"/>
-      <c r="Y64" s="22"/>
-      <c r="Z64" s="22"/>
-      <c r="AA64" s="22"/>
-      <c r="AB64" s="22"/>
-      <c r="AC64" s="22"/>
-      <c r="AD64" s="22"/>
-      <c r="AE64" s="22"/>
-      <c r="AF64" s="22"/>
-      <c r="AG64" s="22"/>
-      <c r="AH64" s="22"/>
-      <c r="AI64" s="19"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T65" s="16"/>
-      <c r="U65" s="22"/>
-      <c r="V65" s="22"/>
-      <c r="W65" s="22"/>
-      <c r="X65" s="22"/>
-      <c r="Y65" s="22"/>
-      <c r="Z65" s="22"/>
-      <c r="AA65" s="22"/>
-      <c r="AB65" s="22"/>
-      <c r="AC65" s="22"/>
-      <c r="AD65" s="22"/>
-      <c r="AE65" s="22"/>
-      <c r="AF65" s="22"/>
-      <c r="AG65" s="22"/>
-      <c r="AH65" s="22"/>
-      <c r="AI65" s="19"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="T66" s="16"/>
-      <c r="U66" s="22"/>
-      <c r="V66" s="22"/>
-      <c r="W66" s="22"/>
-      <c r="X66" s="18"/>
-      <c r="Y66" s="18"/>
-      <c r="Z66" s="18"/>
-      <c r="AA66" s="17" t="n">
-        <f aca="false">AA62-1</f>
-        <v>126</v>
-      </c>
-      <c r="AB66" s="17"/>
-      <c r="AC66" s="18"/>
-      <c r="AD66" s="17" t="n">
-        <f aca="false">AD62-1</f>
-        <v>126</v>
       </c>
       <c r="AE66" s="17"/>
       <c r="AF66" s="18"/>
@@ -33651,8 +33250,8 @@
   </sheetPr>
   <dimension ref="A1:AI69"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B46" activeCellId="0" sqref="B46"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J56" activeCellId="0" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -33698,7 +33297,7 @@
       </c>
       <c r="C5" s="2" t="str">
         <f aca="false">C7&amp;C6</f>
-        <v>130Ag</v>
+        <v>129Ag</v>
       </c>
       <c r="D5" s="3"/>
       <c r="F5" s="1" t="n">
@@ -33706,7 +33305,7 @@
       </c>
       <c r="G5" s="2" t="str">
         <f aca="false">G7&amp;G6</f>
-        <v>130Cd</v>
+        <v>129Cd</v>
       </c>
       <c r="H5" s="3"/>
       <c r="J5" s="4" t="n">
@@ -33714,7 +33313,7 @@
       </c>
       <c r="K5" s="4" t="str">
         <f aca="false">K7&amp;K6</f>
-        <v>130In</v>
+        <v>129In</v>
       </c>
       <c r="L5" s="3"/>
       <c r="N5" s="1" t="n">
@@ -33722,13 +33321,13 @@
       </c>
       <c r="O5" s="2" t="str">
         <f aca="false">O7&amp;O6</f>
-        <v>130Sn</v>
+        <v>129Sn</v>
       </c>
       <c r="P5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3" t="str">
         <f aca="false">S7&amp;S6</f>
-        <v>130Sb</v>
+        <v>129Sb</v>
       </c>
       <c r="T5" s="3"/>
     </row>
@@ -33774,7 +33373,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D7" s="5"/>
       <c r="F7" s="5" t="s">
@@ -33782,7 +33381,7 @@
       </c>
       <c r="G7" s="5" t="n">
         <f aca="false">C7</f>
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H7" s="5"/>
       <c r="J7" s="5" t="s">
@@ -33790,7 +33389,7 @@
       </c>
       <c r="K7" s="5" t="n">
         <f aca="false">G7</f>
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L7" s="5"/>
       <c r="N7" s="5" t="s">
@@ -33798,7 +33397,7 @@
       </c>
       <c r="O7" s="5" t="n">
         <f aca="false">K7</f>
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P7" s="5"/>
       <c r="R7" s="5" t="s">
@@ -33806,7 +33405,7 @@
       </c>
       <c r="S7" s="5" t="n">
         <f aca="false">O7</f>
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T7" s="5"/>
     </row>
@@ -33856,37 +33455,37 @@
         <v>10</v>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.042</v>
+        <v>0.046</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.005</v>
+        <v>0.009</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.132148</v>
+        <v>0.154</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.000784619</v>
+        <v>0.002</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.29</v>
+        <v>0.611</v>
       </c>
       <c r="L9" s="6" t="n">
-        <v>0.02</v>
+        <v>0.005</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>223.2</v>
+        <v>133.8</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="R9" s="6" t="s">
         <v>10</v>
@@ -33908,19 +33507,19 @@
         <v>11</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3.04396</v>
+        <v>50</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.188788</v>
+        <v>50</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>0.93</v>
+        <v>0.23</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>0.13</v>
+        <v>0.07</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>11</v>
@@ -33982,10 +33581,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="6" t="n">
-        <v>0.042</v>
+        <v>0.046</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.005</v>
+        <v>0.009</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34008,7 +33607,7 @@
       </c>
       <c r="G15" s="2" t="str">
         <f aca="false">G17&amp;G16</f>
-        <v>129Cd</v>
+        <v>128Cd</v>
       </c>
       <c r="H15" s="3"/>
       <c r="J15" s="1" t="n">
@@ -34016,7 +33615,7 @@
       </c>
       <c r="K15" s="2" t="str">
         <f aca="false">K17&amp;K16</f>
-        <v>129In</v>
+        <v>128In</v>
       </c>
       <c r="L15" s="3"/>
       <c r="N15" s="1" t="n">
@@ -34024,13 +33623,13 @@
       </c>
       <c r="O15" s="2" t="str">
         <f aca="false">O17&amp;O16</f>
-        <v>129Sn</v>
+        <v>128Sn</v>
       </c>
       <c r="P15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3" t="str">
         <f aca="false">S17&amp;S16</f>
-        <v>129Sb</v>
+        <v>128Sb</v>
       </c>
       <c r="T15" s="3"/>
     </row>
@@ -34074,7 +33673,7 @@
       </c>
       <c r="G17" s="5" t="n">
         <f aca="false">G7-1</f>
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H17" s="5"/>
       <c r="J17" s="5" t="s">
@@ -34082,7 +33681,7 @@
       </c>
       <c r="K17" s="5" t="n">
         <f aca="false">G17</f>
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L17" s="5"/>
       <c r="N17" s="5" t="s">
@@ -34090,7 +33689,7 @@
       </c>
       <c r="O17" s="5" t="n">
         <f aca="false">K17</f>
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P17" s="5"/>
       <c r="R17" s="5" t="s">
@@ -34098,7 +33697,7 @@
       </c>
       <c r="S17" s="5" t="n">
         <f aca="false">O17</f>
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T17" s="5"/>
     </row>
@@ -34141,28 +33740,28 @@
         <v>10</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.154</v>
+        <v>0.28</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.002</v>
+        <v>0.04</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.611</v>
+        <v>0.84</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>0.005</v>
+        <v>0.06</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>133.8</v>
+        <v>3544.2</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>2.4</v>
+        <v>8.4</v>
       </c>
       <c r="R19" s="6" t="s">
         <v>10</v>
@@ -34175,19 +33774,19 @@
         <v>11</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J20" s="6" t="s">
         <v>11</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.23</v>
+        <v>0.046</v>
       </c>
       <c r="L20" s="6" t="n">
-        <v>0.07</v>
+        <v>0.046</v>
       </c>
       <c r="N20" s="6" t="s">
         <v>11</v>
@@ -34244,7 +33843,7 @@
       </c>
       <c r="G25" s="2" t="str">
         <f aca="false">G27&amp;G26</f>
-        <v>128Cd</v>
+        <v>127Cd</v>
       </c>
       <c r="H25" s="3"/>
       <c r="J25" s="1" t="n">
@@ -34252,13 +33851,13 @@
       </c>
       <c r="K25" s="2" t="str">
         <f aca="false">K27&amp;K26</f>
-        <v>128In</v>
+        <v>127In</v>
       </c>
       <c r="L25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3" t="str">
         <f aca="false">O27&amp;O26</f>
-        <v>128Sn</v>
+        <v>127Sn</v>
       </c>
       <c r="P25" s="3"/>
     </row>
@@ -34294,7 +33893,7 @@
       </c>
       <c r="G27" s="5" t="n">
         <f aca="false">G17-1</f>
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H27" s="5"/>
       <c r="J27" s="5" t="s">
@@ -34302,7 +33901,7 @@
       </c>
       <c r="K27" s="5" t="n">
         <f aca="false">G27</f>
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L27" s="5"/>
       <c r="N27" s="5" t="s">
@@ -34310,7 +33909,7 @@
       </c>
       <c r="O27" s="5" t="n">
         <f aca="false">K27</f>
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P27" s="5"/>
     </row>
@@ -34345,19 +33944,19 @@
         <v>10</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.28</v>
+        <v>0.37</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04</v>
+        <v>0.07</v>
       </c>
       <c r="J29" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K29" s="6" t="n">
-        <v>0.84</v>
+        <v>1.09</v>
       </c>
       <c r="L29" s="6" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="N29" s="6" t="s">
         <v>10</v>
@@ -34379,10 +33978,10 @@
         <v>11</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>0.046</v>
+        <v>0.03</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>0.046</v>
+        <v>0.03</v>
       </c>
       <c r="N30" s="6" t="s">
         <v>11</v>
@@ -34432,13 +34031,14 @@
         <v>16</v>
       </c>
       <c r="B35" s="7" t="n">
-        <v>120</v>
+        <f aca="false">1100-140</f>
+        <v>960</v>
       </c>
       <c r="C35" s="7" t="n">
         <v>0</v>
       </c>
       <c r="D35" s="7" t="n">
-        <v>500</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34446,13 +34046,13 @@
         <v>17</v>
       </c>
       <c r="B36" s="7" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C36" s="7" t="n">
         <v>0</v>
       </c>
       <c r="D36" s="7" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34525,18 +34125,18 @@
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="10" t="str">
         <f aca="false">C5</f>
-        <v>130Ag</v>
+        <v>129Ag</v>
       </c>
       <c r="C41" s="11" t="n">
         <v>1</v>
       </c>
       <c r="D41" s="11" t="n">
         <f aca="false">C9</f>
-        <v>0.042</v>
+        <v>0.046</v>
       </c>
       <c r="E41" s="11" t="n">
         <f aca="false">D9</f>
-        <v>0.005</v>
+        <v>0.009</v>
       </c>
       <c r="F41" s="11" t="n">
         <f aca="false">C10/100</f>
@@ -34559,11 +34159,11 @@
       </c>
       <c r="K41" s="12" t="n">
         <f aca="false">D41/10</f>
-        <v>0.0042</v>
+        <v>0.0046</v>
       </c>
       <c r="L41" s="12" t="n">
         <f aca="false">D41*10</f>
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="M41" s="12" t="n">
         <v>0</v>
@@ -34587,26 +34187,26 @@
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="10" t="str">
         <f aca="false">G5</f>
-        <v>130Cd</v>
+        <v>129Cd</v>
       </c>
       <c r="C42" s="11" t="n">
         <v>2</v>
       </c>
       <c r="D42" s="11" t="n">
         <f aca="false">G9</f>
-        <v>0.132148</v>
+        <v>0.154</v>
       </c>
       <c r="E42" s="11" t="n">
         <f aca="false">H9</f>
-        <v>0.000784619</v>
+        <v>0.002</v>
       </c>
       <c r="F42" s="11" t="n">
         <f aca="false">G10/100</f>
-        <v>0.0304396</v>
+        <v>0.5</v>
       </c>
       <c r="G42" s="11" t="n">
         <f aca="false">H10/100</f>
-        <v>0.00188788</v>
+        <v>0.5</v>
       </c>
       <c r="H42" s="11" t="n">
         <f aca="false">G11/100</f>
@@ -34621,14 +34221,14 @@
       </c>
       <c r="K42" s="12" t="n">
         <f aca="false">D42/10</f>
-        <v>0.0132148</v>
+        <v>0.0154</v>
       </c>
       <c r="L42" s="12" t="n">
         <f aca="false">D42*10</f>
-        <v>1.32148</v>
+        <v>1.54</v>
       </c>
       <c r="M42" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" s="12" t="n">
         <v>0</v>
@@ -34649,26 +34249,26 @@
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="10" t="str">
         <f aca="false">G15</f>
-        <v>129Cd</v>
+        <v>128Cd</v>
       </c>
       <c r="C43" s="11" t="n">
         <v>3</v>
       </c>
       <c r="D43" s="11" t="n">
         <f aca="false">G19</f>
-        <v>0.154</v>
+        <v>0.28</v>
       </c>
       <c r="E43" s="11" t="n">
         <f aca="false">H19</f>
-        <v>0.002</v>
+        <v>0.04</v>
       </c>
       <c r="F43" s="11" t="n">
         <f aca="false">G20/100</f>
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="G43" s="11" t="n">
         <f aca="false">H20/100</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H43" s="11" t="n">
         <f aca="false">G21/100</f>
@@ -34683,11 +34283,11 @@
       </c>
       <c r="K43" s="12" t="n">
         <f aca="false">D43/10</f>
-        <v>0.0154</v>
+        <v>0.028</v>
       </c>
       <c r="L43" s="12" t="n">
         <f aca="false">D43*10</f>
-        <v>1.54</v>
+        <v>2.8</v>
       </c>
       <c r="M43" s="12" t="n">
         <v>1</v>
@@ -34711,26 +34311,26 @@
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="10" t="str">
         <f aca="false">K5</f>
-        <v>130In</v>
+        <v>129In</v>
       </c>
       <c r="C44" s="11" t="n">
         <v>4</v>
       </c>
       <c r="D44" s="11" t="n">
         <f aca="false">K9</f>
-        <v>0.29</v>
+        <v>0.611</v>
       </c>
       <c r="E44" s="11" t="n">
         <f aca="false">L9</f>
-        <v>0.02</v>
+        <v>0.005</v>
       </c>
       <c r="F44" s="11" t="n">
         <f aca="false">K10/100</f>
-        <v>0.0093</v>
+        <v>0.0023</v>
       </c>
       <c r="G44" s="11" t="n">
         <f aca="false">L10/100</f>
-        <v>0.0013</v>
+        <v>0.0007</v>
       </c>
       <c r="H44" s="11" t="n">
         <f aca="false">K11/100</f>
@@ -34745,11 +34345,11 @@
       </c>
       <c r="K44" s="12" t="n">
         <f aca="false">D44/10</f>
-        <v>0.029</v>
+        <v>0.0611</v>
       </c>
       <c r="L44" s="12" t="n">
         <f aca="false">D44*10</f>
-        <v>2.9</v>
+        <v>6.11</v>
       </c>
       <c r="M44" s="12" t="n">
         <v>1</v>
@@ -34773,26 +34373,26 @@
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="10" t="str">
         <f aca="false">K15</f>
-        <v>129In</v>
+        <v>128In</v>
       </c>
       <c r="C45" s="11" t="n">
         <v>5</v>
       </c>
       <c r="D45" s="11" t="n">
         <f aca="false">K19</f>
-        <v>0.611</v>
+        <v>0.84</v>
       </c>
       <c r="E45" s="11" t="n">
         <f aca="false">L19</f>
-        <v>0.005</v>
+        <v>0.06</v>
       </c>
       <c r="F45" s="11" t="n">
         <f aca="false">K20/100</f>
-        <v>0.0023</v>
+        <v>0.00046</v>
       </c>
       <c r="G45" s="11" t="n">
         <f aca="false">L20/100</f>
-        <v>0.0007</v>
+        <v>0.00046</v>
       </c>
       <c r="H45" s="11" t="n">
         <f aca="false">K21/100</f>
@@ -34807,11 +34407,11 @@
       </c>
       <c r="K45" s="12" t="n">
         <f aca="false">D45/10</f>
-        <v>0.0611</v>
+        <v>0.084</v>
       </c>
       <c r="L45" s="12" t="n">
         <f aca="false">D45*10</f>
-        <v>6.11</v>
+        <v>8.4</v>
       </c>
       <c r="M45" s="12" t="n">
         <v>1</v>
@@ -34835,18 +34435,18 @@
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="10" t="str">
         <f aca="false">G25</f>
-        <v>128Cd</v>
+        <v>127Cd</v>
       </c>
       <c r="C46" s="11" t="n">
         <v>6</v>
       </c>
       <c r="D46" s="11" t="n">
         <f aca="false">G29</f>
-        <v>0.28</v>
+        <v>0.37</v>
       </c>
       <c r="E46" s="11" t="n">
         <f aca="false">H29</f>
-        <v>0.04</v>
+        <v>0.07</v>
       </c>
       <c r="F46" s="11" t="n">
         <f aca="false">G30/100</f>
@@ -34869,11 +34469,11 @@
       </c>
       <c r="K46" s="12" t="n">
         <f aca="false">D46/10</f>
-        <v>0.028</v>
+        <v>0.037</v>
       </c>
       <c r="L46" s="12" t="n">
         <f aca="false">D46*10</f>
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="M46" s="12" t="n">
         <v>1</v>
@@ -34897,18 +34497,18 @@
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="10" t="str">
         <f aca="false">O5</f>
-        <v>130Sn</v>
+        <v>129Sn</v>
       </c>
       <c r="C47" s="11" t="n">
         <v>7</v>
       </c>
       <c r="D47" s="11" t="n">
         <f aca="false">O9</f>
-        <v>223.2</v>
+        <v>133.8</v>
       </c>
       <c r="E47" s="11" t="n">
         <f aca="false">P9</f>
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="F47" s="11" t="n">
         <f aca="false">O10/100</f>
@@ -34931,11 +34531,11 @@
       </c>
       <c r="K47" s="12" t="n">
         <f aca="false">D47/10</f>
-        <v>22.32</v>
+        <v>13.38</v>
       </c>
       <c r="L47" s="12" t="n">
         <f aca="false">D47*10</f>
-        <v>2232</v>
+        <v>1338</v>
       </c>
       <c r="M47" s="12" t="n">
         <v>1</v>
@@ -34959,18 +34559,18 @@
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="10" t="str">
         <f aca="false">O15</f>
-        <v>129Sn</v>
+        <v>128Sn</v>
       </c>
       <c r="C48" s="11" t="n">
         <v>8</v>
       </c>
       <c r="D48" s="11" t="n">
         <f aca="false">O19</f>
-        <v>133.8</v>
+        <v>3544.2</v>
       </c>
       <c r="E48" s="11" t="n">
         <f aca="false">P19</f>
-        <v>2.4</v>
+        <v>8.4</v>
       </c>
       <c r="F48" s="11" t="n">
         <f aca="false">O20/100</f>
@@ -34993,11 +34593,11 @@
       </c>
       <c r="K48" s="12" t="n">
         <f aca="false">D48/10</f>
-        <v>13.38</v>
+        <v>354.42</v>
       </c>
       <c r="L48" s="12" t="n">
         <f aca="false">D48*10</f>
-        <v>1338</v>
+        <v>35442</v>
       </c>
       <c r="M48" s="12" t="n">
         <v>1</v>
@@ -35021,26 +34621,26 @@
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="10" t="str">
         <f aca="false">K25</f>
-        <v>128In</v>
+        <v>127In</v>
       </c>
       <c r="C49" s="11" t="n">
         <v>9</v>
       </c>
       <c r="D49" s="11" t="n">
         <f aca="false">K29</f>
-        <v>0.84</v>
+        <v>1.09</v>
       </c>
       <c r="E49" s="11" t="n">
         <f aca="false">L29</f>
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="F49" s="11" t="n">
         <f aca="false">K30/100</f>
-        <v>0.00046</v>
+        <v>0.0003</v>
       </c>
       <c r="G49" s="11" t="n">
         <f aca="false">L30/100</f>
-        <v>0.00046</v>
+        <v>0.0003</v>
       </c>
       <c r="H49" s="11" t="n">
         <f aca="false">K31/100</f>
@@ -35055,11 +34655,11 @@
       </c>
       <c r="K49" s="12" t="n">
         <f aca="false">D49/10</f>
-        <v>0.084</v>
+        <v>0.109</v>
       </c>
       <c r="L49" s="12" t="n">
         <f aca="false">D49*10</f>
-        <v>8.4</v>
+        <v>10.9</v>
       </c>
       <c r="M49" s="12" t="n">
         <v>1</v>
@@ -35102,31 +34702,31 @@
       <c r="T54" s="16"/>
       <c r="U54" s="17" t="n">
         <f aca="false">C7</f>
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="V54" s="17"/>
       <c r="W54" s="18"/>
       <c r="X54" s="17" t="n">
         <f aca="false">G7</f>
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Y54" s="17"/>
       <c r="Z54" s="18"/>
       <c r="AA54" s="17" t="n">
         <f aca="false">K7</f>
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AB54" s="17"/>
       <c r="AC54" s="18"/>
       <c r="AD54" s="17" t="n">
         <f aca="false">O7</f>
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AE54" s="17"/>
       <c r="AF54" s="18"/>
       <c r="AG54" s="17" t="n">
         <f aca="false">S7</f>
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AH54" s="17"/>
       <c r="AI54" s="19"/>
@@ -35207,25 +34807,25 @@
       <c r="W58" s="22"/>
       <c r="X58" s="17" t="n">
         <f aca="false">G17</f>
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y58" s="17"/>
       <c r="Z58" s="18"/>
       <c r="AA58" s="17" t="n">
         <f aca="false">K17</f>
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB58" s="17"/>
       <c r="AC58" s="18"/>
       <c r="AD58" s="17" t="n">
         <f aca="false">O17</f>
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AE58" s="17"/>
       <c r="AF58" s="18"/>
       <c r="AG58" s="17" t="n">
         <f aca="false">S17</f>
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AH58" s="17"/>
       <c r="AI58" s="19"/>
@@ -35303,19 +34903,19 @@
       <c r="W62" s="22"/>
       <c r="X62" s="17" t="n">
         <f aca="false">G27</f>
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y62" s="17"/>
       <c r="Z62" s="18"/>
       <c r="AA62" s="17" t="n">
         <f aca="false">K27</f>
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AB62" s="17"/>
       <c r="AC62" s="18"/>
       <c r="AD62" s="17" t="n">
         <f aca="false">O27</f>
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AE62" s="17"/>
       <c r="AF62" s="18"/>
@@ -35396,13 +34996,13 @@
       <c r="Z66" s="18"/>
       <c r="AA66" s="17" t="n">
         <f aca="false">AA62-1</f>
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AB66" s="17"/>
       <c r="AC66" s="18"/>
       <c r="AD66" s="17" t="n">
         <f aca="false">AD62-1</f>
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AE66" s="17"/>
       <c r="AF66" s="18"/>
@@ -35489,8 +35089,8 @@
   </sheetPr>
   <dimension ref="A1:AI69"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H34" activeCellId="0" sqref="H34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J40" activeCellId="0" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -35536,6 +35136,1844 @@
       </c>
       <c r="C5" s="2" t="str">
         <f aca="false">C7&amp;C6</f>
+        <v>130Ag</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="F5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f aca="false">G7&amp;G6</f>
+        <v>130Cd</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="J5" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" s="4" t="str">
+        <f aca="false">K7&amp;K6</f>
+        <v>130In</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="N5" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="O5" s="2" t="str">
+        <f aca="false">O7&amp;O6</f>
+        <v>130Sn</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3" t="str">
+        <f aca="false">S7&amp;S6</f>
+        <v>130Sb</v>
+      </c>
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="N6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="5"/>
+      <c r="R6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>130</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <f aca="false">C7</f>
+        <v>130</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="J7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <f aca="false">G7</f>
+        <v>130</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="N7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <f aca="false">K7</f>
+        <v>130</v>
+      </c>
+      <c r="P7" s="5"/>
+      <c r="R7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S7" s="5" t="n">
+        <f aca="false">O7</f>
+        <v>130</v>
+      </c>
+      <c r="T7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>47</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <f aca="false">C8+1</f>
+        <v>48</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="J8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <f aca="false">G8+1</f>
+        <v>49</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="N8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <f aca="false">K8+1</f>
+        <v>50</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="R8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S8" s="5" t="n">
+        <f aca="false">O8+1</f>
+        <v>51</v>
+      </c>
+      <c r="T8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.132148</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.000784619</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>223.2</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>3.04396</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.188788</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="6" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="6" t="n">
+        <v>-50</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2" t="str">
+        <f aca="false">G17&amp;G16</f>
+        <v>129Cd</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="J15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K15" s="2" t="str">
+        <f aca="false">K17&amp;K16</f>
+        <v>129In</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="N15" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="O15" s="2" t="str">
+        <f aca="false">O17&amp;O16</f>
+        <v>129Sn</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3" t="str">
+        <f aca="false">S17&amp;S16</f>
+        <v>129Sb</v>
+      </c>
+      <c r="T15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="5" t="str">
+        <f aca="false">G6</f>
+        <v>Cd</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="J16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" s="5" t="str">
+        <f aca="false">K6</f>
+        <v>In</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="N16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O16" s="5" t="str">
+        <f aca="false">O6</f>
+        <v>Sn</v>
+      </c>
+      <c r="P16" s="5"/>
+      <c r="R16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S16" s="5" t="str">
+        <f aca="false">S6</f>
+        <v>Sb</v>
+      </c>
+      <c r="T16" s="5"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <f aca="false">G7-1</f>
+        <v>129</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="J17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <f aca="false">G17</f>
+        <v>129</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="N17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="5" t="n">
+        <f aca="false">K17</f>
+        <v>129</v>
+      </c>
+      <c r="P17" s="5"/>
+      <c r="R17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="S17" s="5" t="n">
+        <f aca="false">O17</f>
+        <v>129</v>
+      </c>
+      <c r="T17" s="5"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <f aca="false">G8</f>
+        <v>48</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="J18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <f aca="false">G18+1</f>
+        <v>49</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="N18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18" s="5" t="n">
+        <f aca="false">K18+1</f>
+        <v>50</v>
+      </c>
+      <c r="P18" s="5"/>
+      <c r="R18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S18" s="5" t="n">
+        <f aca="false">S8</f>
+        <v>51</v>
+      </c>
+      <c r="T18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="6" t="n">
+        <v>0.611</v>
+      </c>
+      <c r="L19" s="6" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O19" s="6" t="n">
+        <v>133.8</v>
+      </c>
+      <c r="P19" s="6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-50</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="6" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L20" s="6" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F25" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G25" s="2" t="str">
+        <f aca="false">G27&amp;G26</f>
+        <v>128Cd</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="J25" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K25" s="2" t="str">
+        <f aca="false">K27&amp;K26</f>
+        <v>128In</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3" t="str">
+        <f aca="false">O27&amp;O26</f>
+        <v>128Sn</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="5" t="str">
+        <f aca="false">G16</f>
+        <v>Cd</v>
+      </c>
+      <c r="H26" s="5"/>
+      <c r="J26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K26" s="5" t="str">
+        <f aca="false">K16</f>
+        <v>In</v>
+      </c>
+      <c r="L26" s="5"/>
+      <c r="N26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O26" s="5" t="str">
+        <f aca="false">O16</f>
+        <v>Sn</v>
+      </c>
+      <c r="P26" s="5"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <f aca="false">G17-1</f>
+        <v>128</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="J27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="5" t="n">
+        <f aca="false">G27</f>
+        <v>128</v>
+      </c>
+      <c r="L27" s="5"/>
+      <c r="N27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27" s="5" t="n">
+        <f aca="false">K27</f>
+        <v>128</v>
+      </c>
+      <c r="P27" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <f aca="false">G18</f>
+        <v>48</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="J28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="5" t="n">
+        <f aca="false">G28+1</f>
+        <v>49</v>
+      </c>
+      <c r="L28" s="5"/>
+      <c r="N28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O28" s="5" t="n">
+        <f aca="false">K28+1</f>
+        <v>50</v>
+      </c>
+      <c r="P28" s="5"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="6" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H29" s="6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="6" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="L29" s="6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="6" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="L30" s="6" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="7" t="n">
+        <v>120</v>
+      </c>
+      <c r="C35" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="7" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="7" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C37" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="K40" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L40" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="N40" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="O40" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="P40" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q40" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="R40" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="10" t="str">
+        <f aca="false">C5</f>
+        <v>130Ag</v>
+      </c>
+      <c r="C41" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="11" t="n">
+        <f aca="false">C9</f>
+        <v>0.042</v>
+      </c>
+      <c r="E41" s="11" t="n">
+        <f aca="false">D9</f>
+        <v>0.005</v>
+      </c>
+      <c r="F41" s="11" t="n">
+        <f aca="false">C10/100</f>
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="11" t="n">
+        <f aca="false">D10/100</f>
+        <v>0.5</v>
+      </c>
+      <c r="H41" s="11" t="n">
+        <f aca="false">C11/100</f>
+        <v>0.5</v>
+      </c>
+      <c r="I41" s="11" t="n">
+        <f aca="false">D11/100</f>
+        <v>0.5</v>
+      </c>
+      <c r="J41" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" s="12" t="n">
+        <f aca="false">D41/10</f>
+        <v>0.0042</v>
+      </c>
+      <c r="L41" s="12" t="n">
+        <f aca="false">D41*10</f>
+        <v>0.42</v>
+      </c>
+      <c r="M41" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="10" t="str">
+        <f aca="false">G5</f>
+        <v>130Cd</v>
+      </c>
+      <c r="C42" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" s="11" t="n">
+        <f aca="false">G9</f>
+        <v>0.132148</v>
+      </c>
+      <c r="E42" s="11" t="n">
+        <f aca="false">H9</f>
+        <v>0.000784619</v>
+      </c>
+      <c r="F42" s="11" t="n">
+        <f aca="false">G10/100</f>
+        <v>0.0304396</v>
+      </c>
+      <c r="G42" s="11" t="n">
+        <f aca="false">H10/100</f>
+        <v>0.00188788</v>
+      </c>
+      <c r="H42" s="11" t="n">
+        <f aca="false">G11/100</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="11" t="n">
+        <f aca="false">H11/100</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" s="12" t="n">
+        <f aca="false">D42/10</f>
+        <v>0.0132148</v>
+      </c>
+      <c r="L42" s="12" t="n">
+        <f aca="false">D42*10</f>
+        <v>1.32148</v>
+      </c>
+      <c r="M42" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="10" t="str">
+        <f aca="false">G15</f>
+        <v>129Cd</v>
+      </c>
+      <c r="C43" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D43" s="11" t="n">
+        <f aca="false">G19</f>
+        <v>0.154</v>
+      </c>
+      <c r="E43" s="11" t="n">
+        <f aca="false">H19</f>
+        <v>0.002</v>
+      </c>
+      <c r="F43" s="11" t="n">
+        <f aca="false">G20/100</f>
+        <v>-0.5</v>
+      </c>
+      <c r="G43" s="11" t="n">
+        <f aca="false">H20/100</f>
+        <v>0.5</v>
+      </c>
+      <c r="H43" s="11" t="n">
+        <f aca="false">G21/100</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="11" t="n">
+        <f aca="false">H21/100</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" s="12" t="n">
+        <f aca="false">D43/10</f>
+        <v>0.0154</v>
+      </c>
+      <c r="L43" s="12" t="n">
+        <f aca="false">D43*10</f>
+        <v>1.54</v>
+      </c>
+      <c r="M43" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="10" t="str">
+        <f aca="false">K5</f>
+        <v>130In</v>
+      </c>
+      <c r="C44" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D44" s="11" t="n">
+        <f aca="false">K9</f>
+        <v>0.29</v>
+      </c>
+      <c r="E44" s="11" t="n">
+        <f aca="false">L9</f>
+        <v>0.02</v>
+      </c>
+      <c r="F44" s="11" t="n">
+        <f aca="false">K10/100</f>
+        <v>0.0093</v>
+      </c>
+      <c r="G44" s="11" t="n">
+        <f aca="false">L10/100</f>
+        <v>0.0013</v>
+      </c>
+      <c r="H44" s="11" t="n">
+        <f aca="false">K11/100</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="11" t="n">
+        <f aca="false">L11/100</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" s="12" t="n">
+        <f aca="false">D44/10</f>
+        <v>0.029</v>
+      </c>
+      <c r="L44" s="12" t="n">
+        <f aca="false">D44*10</f>
+        <v>2.9</v>
+      </c>
+      <c r="M44" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="10" t="str">
+        <f aca="false">K15</f>
+        <v>129In</v>
+      </c>
+      <c r="C45" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" s="11" t="n">
+        <f aca="false">K19</f>
+        <v>0.611</v>
+      </c>
+      <c r="E45" s="11" t="n">
+        <f aca="false">L19</f>
+        <v>0.005</v>
+      </c>
+      <c r="F45" s="11" t="n">
+        <f aca="false">K20/100</f>
+        <v>0.0023</v>
+      </c>
+      <c r="G45" s="11" t="n">
+        <f aca="false">L20/100</f>
+        <v>0.0007</v>
+      </c>
+      <c r="H45" s="11" t="n">
+        <f aca="false">K21/100</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="11" t="n">
+        <f aca="false">L21/100</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" s="12" t="n">
+        <f aca="false">D45/10</f>
+        <v>0.0611</v>
+      </c>
+      <c r="L45" s="12" t="n">
+        <f aca="false">D45*10</f>
+        <v>6.11</v>
+      </c>
+      <c r="M45" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="10" t="str">
+        <f aca="false">G25</f>
+        <v>128Cd</v>
+      </c>
+      <c r="C46" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D46" s="11" t="n">
+        <f aca="false">G29</f>
+        <v>0.28</v>
+      </c>
+      <c r="E46" s="11" t="n">
+        <f aca="false">H29</f>
+        <v>0.04</v>
+      </c>
+      <c r="F46" s="11" t="n">
+        <f aca="false">G30/100</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="11" t="n">
+        <f aca="false">H30/100</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="11" t="n">
+        <f aca="false">G31/100</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="11" t="n">
+        <f aca="false">H31/100</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" s="12" t="n">
+        <f aca="false">D46/10</f>
+        <v>0.028</v>
+      </c>
+      <c r="L46" s="12" t="n">
+        <f aca="false">D46*10</f>
+        <v>2.8</v>
+      </c>
+      <c r="M46" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="10" t="str">
+        <f aca="false">O5</f>
+        <v>130Sn</v>
+      </c>
+      <c r="C47" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D47" s="11" t="n">
+        <f aca="false">O9</f>
+        <v>223.2</v>
+      </c>
+      <c r="E47" s="11" t="n">
+        <f aca="false">P9</f>
+        <v>4.2</v>
+      </c>
+      <c r="F47" s="11" t="n">
+        <f aca="false">O10/100</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="11" t="n">
+        <f aca="false">P10/100</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="11" t="n">
+        <f aca="false">O11/100</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="11" t="n">
+        <f aca="false">P11/100</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" s="12" t="n">
+        <f aca="false">D47/10</f>
+        <v>22.32</v>
+      </c>
+      <c r="L47" s="12" t="n">
+        <f aca="false">D47*10</f>
+        <v>2232</v>
+      </c>
+      <c r="M47" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="10" t="str">
+        <f aca="false">O15</f>
+        <v>129Sn</v>
+      </c>
+      <c r="C48" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="D48" s="11" t="n">
+        <f aca="false">O19</f>
+        <v>133.8</v>
+      </c>
+      <c r="E48" s="11" t="n">
+        <f aca="false">P19</f>
+        <v>2.4</v>
+      </c>
+      <c r="F48" s="11" t="n">
+        <f aca="false">O20/100</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="11" t="n">
+        <f aca="false">P20/100</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="11" t="n">
+        <f aca="false">O21/100</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="11" t="n">
+        <f aca="false">P21/100</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" s="12" t="n">
+        <f aca="false">D48/10</f>
+        <v>13.38</v>
+      </c>
+      <c r="L48" s="12" t="n">
+        <f aca="false">D48*10</f>
+        <v>1338</v>
+      </c>
+      <c r="M48" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="10" t="str">
+        <f aca="false">K25</f>
+        <v>128In</v>
+      </c>
+      <c r="C49" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D49" s="11" t="n">
+        <f aca="false">K29</f>
+        <v>0.84</v>
+      </c>
+      <c r="E49" s="11" t="n">
+        <f aca="false">L29</f>
+        <v>0.06</v>
+      </c>
+      <c r="F49" s="11" t="n">
+        <f aca="false">K30/100</f>
+        <v>0.00046</v>
+      </c>
+      <c r="G49" s="11" t="n">
+        <f aca="false">L30/100</f>
+        <v>0.00046</v>
+      </c>
+      <c r="H49" s="11" t="n">
+        <f aca="false">K31/100</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="11" t="n">
+        <f aca="false">L31/100</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" s="12" t="n">
+        <f aca="false">D49/10</f>
+        <v>0.084</v>
+      </c>
+      <c r="L49" s="12" t="n">
+        <f aca="false">D49*10</f>
+        <v>8.4</v>
+      </c>
+      <c r="M49" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" s="12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T53" s="13"/>
+      <c r="U53" s="14"/>
+      <c r="V53" s="14"/>
+      <c r="W53" s="14"/>
+      <c r="X53" s="14"/>
+      <c r="Y53" s="14"/>
+      <c r="Z53" s="14"/>
+      <c r="AA53" s="14"/>
+      <c r="AB53" s="14"/>
+      <c r="AC53" s="14"/>
+      <c r="AD53" s="14"/>
+      <c r="AE53" s="14"/>
+      <c r="AF53" s="14"/>
+      <c r="AG53" s="14"/>
+      <c r="AH53" s="14"/>
+      <c r="AI53" s="15"/>
+    </row>
+    <row r="54" customFormat="false" ht="16.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T54" s="16"/>
+      <c r="U54" s="17" t="n">
+        <f aca="false">C7</f>
+        <v>130</v>
+      </c>
+      <c r="V54" s="17"/>
+      <c r="W54" s="18"/>
+      <c r="X54" s="17" t="n">
+        <f aca="false">G7</f>
+        <v>130</v>
+      </c>
+      <c r="Y54" s="17"/>
+      <c r="Z54" s="18"/>
+      <c r="AA54" s="17" t="n">
+        <f aca="false">K7</f>
+        <v>130</v>
+      </c>
+      <c r="AB54" s="17"/>
+      <c r="AC54" s="18"/>
+      <c r="AD54" s="17" t="n">
+        <f aca="false">O7</f>
+        <v>130</v>
+      </c>
+      <c r="AE54" s="17"/>
+      <c r="AF54" s="18"/>
+      <c r="AG54" s="17" t="n">
+        <f aca="false">S7</f>
+        <v>130</v>
+      </c>
+      <c r="AH54" s="17"/>
+      <c r="AI54" s="19"/>
+    </row>
+    <row r="55" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T55" s="16"/>
+      <c r="U55" s="20"/>
+      <c r="V55" s="21" t="str">
+        <f aca="false">C6</f>
+        <v>Ag</v>
+      </c>
+      <c r="W55" s="22"/>
+      <c r="X55" s="20"/>
+      <c r="Y55" s="21" t="str">
+        <f aca="false">G6</f>
+        <v>Cd</v>
+      </c>
+      <c r="Z55" s="22"/>
+      <c r="AA55" s="20"/>
+      <c r="AB55" s="21" t="str">
+        <f aca="false">K6</f>
+        <v>In</v>
+      </c>
+      <c r="AC55" s="22"/>
+      <c r="AD55" s="20"/>
+      <c r="AE55" s="21" t="str">
+        <f aca="false">O6</f>
+        <v>Sn</v>
+      </c>
+      <c r="AF55" s="22"/>
+      <c r="AG55" s="20"/>
+      <c r="AH55" s="21" t="str">
+        <f aca="false">S6</f>
+        <v>Sb</v>
+      </c>
+      <c r="AI55" s="19"/>
+    </row>
+    <row r="56" customFormat="false" ht="23.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T56" s="16"/>
+      <c r="U56" s="22"/>
+      <c r="V56" s="22"/>
+      <c r="W56" s="22"/>
+      <c r="X56" s="22"/>
+      <c r="Y56" s="22"/>
+      <c r="Z56" s="22"/>
+      <c r="AA56" s="22"/>
+      <c r="AB56" s="22"/>
+      <c r="AC56" s="22"/>
+      <c r="AD56" s="22"/>
+      <c r="AE56" s="22"/>
+      <c r="AF56" s="22"/>
+      <c r="AG56" s="22"/>
+      <c r="AH56" s="22"/>
+      <c r="AI56" s="19"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T57" s="16"/>
+      <c r="U57" s="22"/>
+      <c r="V57" s="22"/>
+      <c r="W57" s="22"/>
+      <c r="X57" s="22"/>
+      <c r="Y57" s="22"/>
+      <c r="Z57" s="22"/>
+      <c r="AA57" s="22"/>
+      <c r="AB57" s="22"/>
+      <c r="AC57" s="22"/>
+      <c r="AD57" s="22"/>
+      <c r="AE57" s="22"/>
+      <c r="AF57" s="22"/>
+      <c r="AG57" s="22"/>
+      <c r="AH57" s="22"/>
+      <c r="AI57" s="19"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T58" s="16"/>
+      <c r="U58" s="22"/>
+      <c r="V58" s="22"/>
+      <c r="W58" s="22"/>
+      <c r="X58" s="17" t="n">
+        <f aca="false">G17</f>
+        <v>129</v>
+      </c>
+      <c r="Y58" s="17"/>
+      <c r="Z58" s="18"/>
+      <c r="AA58" s="17" t="n">
+        <f aca="false">K17</f>
+        <v>129</v>
+      </c>
+      <c r="AB58" s="17"/>
+      <c r="AC58" s="18"/>
+      <c r="AD58" s="17" t="n">
+        <f aca="false">O17</f>
+        <v>129</v>
+      </c>
+      <c r="AE58" s="17"/>
+      <c r="AF58" s="18"/>
+      <c r="AG58" s="17" t="n">
+        <f aca="false">S17</f>
+        <v>129</v>
+      </c>
+      <c r="AH58" s="17"/>
+      <c r="AI58" s="19"/>
+    </row>
+    <row r="59" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T59" s="16"/>
+      <c r="U59" s="22"/>
+      <c r="V59" s="22"/>
+      <c r="W59" s="22"/>
+      <c r="X59" s="20"/>
+      <c r="Y59" s="21" t="str">
+        <f aca="false">G16</f>
+        <v>Cd</v>
+      </c>
+      <c r="Z59" s="22"/>
+      <c r="AA59" s="20"/>
+      <c r="AB59" s="21" t="str">
+        <f aca="false">K16</f>
+        <v>In</v>
+      </c>
+      <c r="AC59" s="22"/>
+      <c r="AD59" s="20"/>
+      <c r="AE59" s="21" t="str">
+        <f aca="false">O16</f>
+        <v>Sn</v>
+      </c>
+      <c r="AF59" s="22"/>
+      <c r="AG59" s="20"/>
+      <c r="AH59" s="21" t="str">
+        <f aca="false">S16</f>
+        <v>Sb</v>
+      </c>
+      <c r="AI59" s="19"/>
+    </row>
+    <row r="60" customFormat="false" ht="22.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T60" s="16"/>
+      <c r="U60" s="22"/>
+      <c r="V60" s="22"/>
+      <c r="W60" s="22"/>
+      <c r="X60" s="22"/>
+      <c r="Y60" s="22"/>
+      <c r="Z60" s="22"/>
+      <c r="AA60" s="22"/>
+      <c r="AB60" s="22"/>
+      <c r="AC60" s="22"/>
+      <c r="AD60" s="22"/>
+      <c r="AE60" s="22"/>
+      <c r="AF60" s="22"/>
+      <c r="AG60" s="22"/>
+      <c r="AH60" s="22"/>
+      <c r="AI60" s="19"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T61" s="16"/>
+      <c r="U61" s="22"/>
+      <c r="V61" s="22"/>
+      <c r="W61" s="22"/>
+      <c r="X61" s="22"/>
+      <c r="Y61" s="22"/>
+      <c r="Z61" s="22"/>
+      <c r="AA61" s="22"/>
+      <c r="AB61" s="22"/>
+      <c r="AC61" s="22"/>
+      <c r="AD61" s="22"/>
+      <c r="AE61" s="22"/>
+      <c r="AF61" s="22"/>
+      <c r="AG61" s="22"/>
+      <c r="AH61" s="22"/>
+      <c r="AI61" s="19"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T62" s="16"/>
+      <c r="U62" s="22"/>
+      <c r="V62" s="22"/>
+      <c r="W62" s="22"/>
+      <c r="X62" s="17" t="n">
+        <f aca="false">G27</f>
+        <v>128</v>
+      </c>
+      <c r="Y62" s="17"/>
+      <c r="Z62" s="18"/>
+      <c r="AA62" s="17" t="n">
+        <f aca="false">K27</f>
+        <v>128</v>
+      </c>
+      <c r="AB62" s="17"/>
+      <c r="AC62" s="18"/>
+      <c r="AD62" s="17" t="n">
+        <f aca="false">O27</f>
+        <v>128</v>
+      </c>
+      <c r="AE62" s="17"/>
+      <c r="AF62" s="18"/>
+      <c r="AG62" s="18"/>
+      <c r="AH62" s="18"/>
+      <c r="AI62" s="19"/>
+    </row>
+    <row r="63" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T63" s="16"/>
+      <c r="U63" s="22"/>
+      <c r="V63" s="22"/>
+      <c r="W63" s="22"/>
+      <c r="X63" s="20"/>
+      <c r="Y63" s="21" t="str">
+        <f aca="false">G26</f>
+        <v>Cd</v>
+      </c>
+      <c r="Z63" s="22"/>
+      <c r="AA63" s="20"/>
+      <c r="AB63" s="21" t="str">
+        <f aca="false">K26</f>
+        <v>In</v>
+      </c>
+      <c r="AC63" s="22"/>
+      <c r="AD63" s="20"/>
+      <c r="AE63" s="21" t="str">
+        <f aca="false">O26</f>
+        <v>Sn</v>
+      </c>
+      <c r="AF63" s="22"/>
+      <c r="AG63" s="22"/>
+      <c r="AH63" s="22"/>
+      <c r="AI63" s="19"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T64" s="16"/>
+      <c r="U64" s="22"/>
+      <c r="V64" s="22"/>
+      <c r="W64" s="22"/>
+      <c r="X64" s="22"/>
+      <c r="Y64" s="22"/>
+      <c r="Z64" s="22"/>
+      <c r="AA64" s="22"/>
+      <c r="AB64" s="22"/>
+      <c r="AC64" s="22"/>
+      <c r="AD64" s="22"/>
+      <c r="AE64" s="22"/>
+      <c r="AF64" s="22"/>
+      <c r="AG64" s="22"/>
+      <c r="AH64" s="22"/>
+      <c r="AI64" s="19"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T65" s="16"/>
+      <c r="U65" s="22"/>
+      <c r="V65" s="22"/>
+      <c r="W65" s="22"/>
+      <c r="X65" s="22"/>
+      <c r="Y65" s="22"/>
+      <c r="Z65" s="22"/>
+      <c r="AA65" s="22"/>
+      <c r="AB65" s="22"/>
+      <c r="AC65" s="22"/>
+      <c r="AD65" s="22"/>
+      <c r="AE65" s="22"/>
+      <c r="AF65" s="22"/>
+      <c r="AG65" s="22"/>
+      <c r="AH65" s="22"/>
+      <c r="AI65" s="19"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T66" s="16"/>
+      <c r="U66" s="22"/>
+      <c r="V66" s="22"/>
+      <c r="W66" s="22"/>
+      <c r="X66" s="18"/>
+      <c r="Y66" s="18"/>
+      <c r="Z66" s="18"/>
+      <c r="AA66" s="17" t="n">
+        <f aca="false">AA62-1</f>
+        <v>127</v>
+      </c>
+      <c r="AB66" s="17"/>
+      <c r="AC66" s="18"/>
+      <c r="AD66" s="17" t="n">
+        <f aca="false">AD62-1</f>
+        <v>127</v>
+      </c>
+      <c r="AE66" s="17"/>
+      <c r="AF66" s="18"/>
+      <c r="AG66" s="18"/>
+      <c r="AH66" s="18"/>
+      <c r="AI66" s="19"/>
+    </row>
+    <row r="67" customFormat="false" ht="23.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="T67" s="16"/>
+      <c r="U67" s="22"/>
+      <c r="V67" s="22"/>
+      <c r="W67" s="22"/>
+      <c r="X67" s="22"/>
+      <c r="Y67" s="22"/>
+      <c r="Z67" s="22"/>
+      <c r="AA67" s="20"/>
+      <c r="AB67" s="21" t="str">
+        <f aca="false">AB63</f>
+        <v>In</v>
+      </c>
+      <c r="AC67" s="22"/>
+      <c r="AD67" s="20"/>
+      <c r="AE67" s="21" t="str">
+        <f aca="false">AE63</f>
+        <v>Sn</v>
+      </c>
+      <c r="AF67" s="22"/>
+      <c r="AG67" s="22"/>
+      <c r="AH67" s="22"/>
+      <c r="AI67" s="19"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T68" s="16"/>
+      <c r="U68" s="22"/>
+      <c r="V68" s="22"/>
+      <c r="W68" s="22"/>
+      <c r="X68" s="22"/>
+      <c r="Y68" s="22"/>
+      <c r="Z68" s="22"/>
+      <c r="AA68" s="22"/>
+      <c r="AB68" s="22"/>
+      <c r="AC68" s="22"/>
+      <c r="AD68" s="22"/>
+      <c r="AE68" s="22"/>
+      <c r="AF68" s="22"/>
+      <c r="AG68" s="22"/>
+      <c r="AH68" s="22"/>
+      <c r="AI68" s="19"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T69" s="23"/>
+      <c r="U69" s="24"/>
+      <c r="V69" s="24"/>
+      <c r="W69" s="24"/>
+      <c r="X69" s="24"/>
+      <c r="Y69" s="24"/>
+      <c r="Z69" s="24"/>
+      <c r="AA69" s="24"/>
+      <c r="AB69" s="24"/>
+      <c r="AC69" s="24"/>
+      <c r="AD69" s="24"/>
+      <c r="AE69" s="24"/>
+      <c r="AF69" s="24"/>
+      <c r="AG69" s="24"/>
+      <c r="AH69" s="24"/>
+      <c r="AI69" s="25"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AI69"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="20" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="4.45408163265306"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="4.05102040816327"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="5.26530612244898"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="4.86224489795918"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="4.72448979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="35" style="0" width="8.36734693877551"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f aca="false">C7&amp;C6</f>
         <v>131Ag</v>
       </c>
       <c r="D5" s="3"/>
@@ -35737,7 +37175,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="6" t="n">
-        <v>-50</v>
+        <v>50</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>50</v>
@@ -35780,10 +37218,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>12</v>
@@ -36332,6 +37770,33 @@
       <c r="I40" s="10" t="s">
         <v>21</v>
       </c>
+      <c r="J40" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="K40" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L40" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="M40" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="N40" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="O40" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="P40" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q40" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="R40" s="26" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="10" t="str">
@@ -36351,7 +37816,7 @@
       </c>
       <c r="F41" s="11" t="n">
         <f aca="false">C10/100</f>
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="G41" s="11" t="n">
         <f aca="false">D10/100</f>
@@ -36359,11 +37824,40 @@
       </c>
       <c r="H41" s="11" t="n">
         <f aca="false">C11/100</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I41" s="11" t="n">
         <f aca="false">D11/100</f>
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="J41" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" s="12" t="n">
+        <f aca="false">D41/10</f>
+        <v>0.0035</v>
+      </c>
+      <c r="L41" s="12" t="n">
+        <f aca="false">D41*10</f>
+        <v>0.35</v>
+      </c>
+      <c r="M41" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" s="12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36398,6 +37892,35 @@
         <f aca="false">H11/100</f>
         <v>0</v>
       </c>
+      <c r="J42" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" s="12" t="n">
+        <f aca="false">D42/10</f>
+        <v>0.0068</v>
+      </c>
+      <c r="L42" s="12" t="n">
+        <f aca="false">D42*10</f>
+        <v>0.68</v>
+      </c>
+      <c r="M42" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" s="12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="10" t="str">
@@ -36431,6 +37954,35 @@
         <f aca="false">H21/100</f>
         <v>0</v>
       </c>
+      <c r="J43" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" s="12" t="n">
+        <f aca="false">D43/10</f>
+        <v>0.0162</v>
+      </c>
+      <c r="L43" s="12" t="n">
+        <f aca="false">D43*10</f>
+        <v>1.62</v>
+      </c>
+      <c r="M43" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" s="12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="10" t="str">
@@ -36464,6 +38016,35 @@
         <f aca="false">L11/100</f>
         <v>0</v>
       </c>
+      <c r="J44" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" s="12" t="n">
+        <f aca="false">D44/10</f>
+        <v>0.028</v>
+      </c>
+      <c r="L44" s="12" t="n">
+        <f aca="false">D44*10</f>
+        <v>2.8</v>
+      </c>
+      <c r="M44" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" s="12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="10" t="str">
@@ -36497,6 +38078,35 @@
         <f aca="false">L21/100</f>
         <v>0</v>
       </c>
+      <c r="J45" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" s="12" t="n">
+        <f aca="false">D45/10</f>
+        <v>0.029</v>
+      </c>
+      <c r="L45" s="12" t="n">
+        <f aca="false">D45*10</f>
+        <v>2.9</v>
+      </c>
+      <c r="M45" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" s="12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="10" t="str">
@@ -36515,12 +38125,10 @@
         <v>0.002</v>
       </c>
       <c r="F46" s="11" t="n">
-        <f aca="false">G30/100</f>
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="G46" s="11" t="n">
-        <f aca="false">H30/100</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H46" s="11" t="n">
         <f aca="false">G31/100</f>
@@ -36529,6 +38137,35 @@
       <c r="I46" s="11" t="n">
         <f aca="false">H31/100</f>
         <v>0</v>
+      </c>
+      <c r="J46" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K46" s="12" t="n">
+        <f aca="false">D46/10</f>
+        <v>0.0154</v>
+      </c>
+      <c r="L46" s="12" t="n">
+        <f aca="false">D46*10</f>
+        <v>1.54</v>
+      </c>
+      <c r="M46" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" s="12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36563,6 +38200,35 @@
         <f aca="false">P11/100</f>
         <v>0</v>
       </c>
+      <c r="J47" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" s="12" t="n">
+        <f aca="false">D47/10</f>
+        <v>5.6</v>
+      </c>
+      <c r="L47" s="12" t="n">
+        <f aca="false">D47*10</f>
+        <v>560</v>
+      </c>
+      <c r="M47" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" s="12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="10" t="str">
@@ -36596,6 +38262,35 @@
         <f aca="false">P21/100</f>
         <v>0</v>
       </c>
+      <c r="J48" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" s="12" t="n">
+        <f aca="false">D48/10</f>
+        <v>22.32</v>
+      </c>
+      <c r="L48" s="12" t="n">
+        <f aca="false">D48*10</f>
+        <v>2232</v>
+      </c>
+      <c r="M48" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" s="12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="10" t="str">
@@ -36628,6 +38323,35 @@
       <c r="I49" s="11" t="n">
         <f aca="false">L31/100</f>
         <v>0</v>
+      </c>
+      <c r="J49" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" s="12" t="n">
+        <f aca="false">D49/10</f>
+        <v>0.0611</v>
+      </c>
+      <c r="L49" s="12" t="n">
+        <f aca="false">D49*10</f>
+        <v>6.11</v>
+      </c>
+      <c r="M49" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" s="12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40769,8 +42493,8 @@
   </sheetPr>
   <dimension ref="A1:AI69"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J40" activeCellId="0" sqref="J40"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
